--- a/Data/Logs/Missing.xlsx
+++ b/Data/Logs/Missing.xlsx
@@ -1743,16 +1743,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>42</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
         <v>0</v>
